--- a/data/trans_bre/P14B23_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.403027200247218</v>
+        <v>2.553342155040133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5770109421957653</v>
+        <v>0.1074430493741384</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.6007695423617405</v>
+        <v>0.6651048357236146</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.06726889549081644</v>
+        <v>0.006621904655784795</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.157749809561064</v>
+        <v>6.083088395404746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.062582932810543</v>
+        <v>6.205388923854986</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.750189299715004</v>
+        <v>2.664060574585186</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.9459828140907527</v>
+        <v>0.9872055658259496</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>3.698623970611514</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.517698212274844</v>
+        <v>1.517698212274845</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.467460413072353</v>
+        <v>1.517652462738303</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.307928332112094</v>
+        <v>2.528681457081968</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.129976302876363</v>
+        <v>1.058104671160707</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6259862231451174</v>
+        <v>0.6726853025903206</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.975483782153667</v>
+        <v>3.978071627538256</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.713681738943809</v>
+        <v>5.754421429169033</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>11.73391896834517</v>
+        <v>10.97753231255363</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.943867432051987</v>
+        <v>2.902009160350393</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>2.157142007692183</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.835365873036463</v>
+        <v>2.835365873036462</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>3.671054869746917</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9989270750246781</v>
+        <v>0.8202267165225781</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.65870450643027</v>
+        <v>1.480836506391895</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.6995944492535285</v>
+        <v>0.5225715309471073</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.5311564516213981</v>
+        <v>0.5270719180637877</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.737623748262226</v>
+        <v>3.642302555337161</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.402227387813706</v>
+        <v>4.182708796789019</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>14.09498443578875</v>
+        <v>13.63299618954159</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.434502707538119</v>
+        <v>3.429775596727866</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1094920455046404</v>
+        <v>0.1297227015888746</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.150154092769664</v>
+        <v>-1.238517752175664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5087649281177563</v>
+        <v>-0.4113393117164695</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3530078501823145</v>
+        <v>-0.3659378483300659</v>
       </c>
     </row>
     <row r="15">
@@ -821,14 +821,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.836471711232269</v>
+        <v>2.943718407493327</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.764785845290328</v>
+        <v>1.620516178803461</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>1.008116483007737</v>
+        <v>0.9919904386206267</v>
       </c>
     </row>
     <row r="16">
@@ -846,13 +846,13 @@
         <v>2.968153080522629</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.784987350121934</v>
+        <v>2.784987350121936</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.149107883932896</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.8791770804843675</v>
+        <v>0.8791770804843679</v>
       </c>
     </row>
     <row r="17">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.142402339279053</v>
+        <v>2.160107502711575</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.822179154814756</v>
+        <v>1.881105426532163</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.210999991855857</v>
+        <v>1.1989033635285</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4731405300481523</v>
+        <v>0.5148112916879065</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.773032433992888</v>
+        <v>3.82769540639205</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.65502873079609</v>
+        <v>3.616333753901241</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.329228683529414</v>
+        <v>3.458818121962645</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.332322217364849</v>
+        <v>1.334798250543076</v>
       </c>
     </row>
     <row r="19">
